--- a/202304/04_単体テスト/03_外部レビュー/チーム2/K01勤怠登録画面_単体試験仕様書 張.xlsx
+++ b/202304/04_単体テスト/03_外部レビュー/チーム2/K01勤怠登録画面_単体試験仕様書 張.xlsx
@@ -12564,8 +12564,8 @@
   <sheetPr/>
   <dimension ref="A1:AK267"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="107" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="AH42" sqref="AH42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="107" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6" defaultRowHeight="9.5"/>
